--- a/data/ims_test_data.xlsx
+++ b/data/ims_test_data.xlsx
@@ -7,14 +7,16 @@
     <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="cp_other_in" sheetId="1" r:id="rId1"/>
+    <sheet name="fhc_cp_other_in" sheetId="1" r:id="rId1"/>
+    <sheet name="bhc_cp_other_in" sheetId="2" r:id="rId2"/>
+    <sheet name="zzc_cp_other_in" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>ware_sku_qty_list</t>
   </si>
@@ -40,13 +42,13 @@
     <t>one</t>
   </si>
   <si>
-    <t>1种单品，数量1个，上架到1个上架库位</t>
+    <t>发货仓：1种单品，数量1个，上架到1个上架库位</t>
   </si>
   <si>
     <t>[["16338527895A01", 2]]</t>
   </si>
   <si>
-    <t>1种单品，数量多个，上架到1个上架库位</t>
+    <t>发货仓：1种单品，数量多个，上架到1个上架库位</t>
   </si>
   <si>
     <t>[["16338527895A01", 2], ["16338527895A01", 3]]</t>
@@ -55,61 +57,139 @@
     <t>many</t>
   </si>
   <si>
-    <t>1种单品，数量多个，上架到多个上架库位</t>
+    <t>发货仓：1种单品，数量多个，上架到多个上架库位</t>
   </si>
   <si>
     <t>[["63203684930A01", 1]]</t>
   </si>
   <si>
-    <t>多品中的1个仓库sku，数量1个，上架到1个上架库位</t>
+    <t>发货仓：多品中的1个仓库sku，数量1个，上架到1个上架库位</t>
   </si>
   <si>
     <t>[["63203684930A01", 2]]</t>
   </si>
   <si>
-    <t>多品中的1个仓库sku，数量多个，上架到1个上架库位</t>
+    <t>发货仓：多品中的1个仓库sku，数量多个，上架到1个上架库位</t>
   </si>
   <si>
     <t>[["63203684930A01", 2], ["63203684930A01", 3]]</t>
   </si>
   <si>
-    <t>多品中的1个仓库sku，数量多个，上架到多个上架库位</t>
+    <t>发货仓：多品中的1个仓库sku，数量多个，上架到多个上架库位</t>
   </si>
   <si>
     <t>[["16338527895A01", 2], ["16338527895A01", 3], ["20537964151A01", 1], ["20537964151A01", 2]]</t>
   </si>
   <si>
-    <t>多个不同单品，数量多个，上架到1个上架库位</t>
-  </si>
-  <si>
-    <t>多个不同单品，数量多个，上架到多个上架库位</t>
+    <t>发货仓：多个不同单品，数量多个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>发货仓：多个不同单品，数量多个，上架到多个上架库位</t>
   </si>
   <si>
     <t>[["63203684930A01", 1], ["63203684930A02", 4]]</t>
   </si>
   <si>
-    <t>多品不够一套，上架到1个上架库位</t>
+    <t>发货仓：多品不够一套，上架到1个上架库位</t>
   </si>
   <si>
     <t>[["63203684930A01", 1], ["63203684930A02", 5]]</t>
   </si>
   <si>
-    <t>多品刚好够一套，上架到1个上架库位</t>
+    <t>发货仓：多品刚好够一套，上架到1个上架库位</t>
   </si>
   <si>
     <t>[["63203684930A01", 1], ["63203684930A02", 10]]</t>
   </si>
   <si>
-    <t>多品够一套，不到2套，上架到1个上架库位</t>
+    <t>发货仓：多品够一套，不到2套，上架到1个上架库位</t>
   </si>
   <si>
     <t>[["63203684930A01", 1], ["63203684930A02", 5], ["63203684930B01", 1], ["63203684930B02", 5]]</t>
   </si>
   <si>
-    <t>多品够2套，2个bom，上架到1个上架库位</t>
-  </si>
-  <si>
-    <t>多品够2套，2个bom，上架到多个上架库位</t>
+    <t>发货仓：多品够2套，2个bom，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>发货仓：多品够2套，2个bom，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：1种单品，数量1个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：1种单品，数量多个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：1种单品，数量多个，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品中的1个仓库sku，数量1个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品中的1个仓库sku，数量多个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品中的1个仓库sku，数量多个，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多个不同单品，数量多个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多个不同单品，数量多个，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品不够一套，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品刚好够一套，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品够一套，不到2套，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品够2套，2个bom，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品够2套，2个bom，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：1种单品，数量1个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：1种单品，数量多个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：1种单品，数量多个，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品中的1个仓库sku，数量1个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品中的1个仓库sku，数量多个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品中的1个仓库sku，数量多个，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多个不同单品，数量多个，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多个不同单品，数量多个，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品不够一套，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品刚好够一套，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品够一套，不到2套，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品够2套，2个bom，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品够2套，2个bom，上架到多个上架库位</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1143,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1360,4 +1440,572 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>512</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>512</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>512</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>512</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>512</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>512</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>512</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>512</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>512</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>512</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>512</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>512</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>512</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>511</v>
+      </c>
+      <c r="D2" s="2">
+        <v>513</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>511</v>
+      </c>
+      <c r="D3" s="2">
+        <v>513</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>511</v>
+      </c>
+      <c r="D4" s="2">
+        <v>513</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>511</v>
+      </c>
+      <c r="D5" s="2">
+        <v>513</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>511</v>
+      </c>
+      <c r="D6" s="2">
+        <v>513</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>511</v>
+      </c>
+      <c r="D7" s="2">
+        <v>513</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>511</v>
+      </c>
+      <c r="D8" s="2">
+        <v>513</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>511</v>
+      </c>
+      <c r="D9" s="2">
+        <v>513</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>511</v>
+      </c>
+      <c r="D10" s="2">
+        <v>513</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>511</v>
+      </c>
+      <c r="D11" s="2">
+        <v>513</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>511</v>
+      </c>
+      <c r="D12" s="2">
+        <v>513</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>511</v>
+      </c>
+      <c r="D13" s="2">
+        <v>513</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>511</v>
+      </c>
+      <c r="D14" s="2">
+        <v>513</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/ims_test_data.xlsx
+++ b/data/ims_test_data.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="28800" windowHeight="12220" tabRatio="737" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fhc_cp_other_in" sheetId="1" r:id="rId1"/>
     <sheet name="bhc_cp_other_in" sheetId="2" r:id="rId2"/>
     <sheet name="zzc_cp_other_in" sheetId="3" r:id="rId3"/>
+    <sheet name="fhc_lp_other_in" sheetId="4" r:id="rId4"/>
+    <sheet name="bhc_lp_other_in" sheetId="5" r:id="rId5"/>
+    <sheet name="zzc_lp_other_in" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>ware_sku_qty_list</t>
   </si>
@@ -190,6 +193,21 @@
   </si>
   <si>
     <t>中转仓：多品够2套，2个bom，上架到多个上架库位</t>
+  </si>
+  <si>
+    <t>[["63203684930A01", 2], ["63203684930A02", 10]]</t>
+  </si>
+  <si>
+    <t>发货仓：多品够2套，1个bom，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>备货仓：多品够2套，1个bom，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：多品够2套，1个bom，上架到1个上架库位</t>
+  </si>
+  <si>
+    <t>中转仓：不同中转仓，相同目的仓</t>
   </si>
 </sst>
 </file>
@@ -197,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -217,10 +235,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,15 +258,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -264,17 +292,74 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,74 +373,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +388,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,48 +544,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,103 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,8 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,30 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -632,6 +626,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,11 +658,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,159 +684,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,18 +1163,18 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="73.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="1" max="1" width="77.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="7.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="6" max="6" width="55.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1183,13 +1204,13 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>513</v>
-      </c>
-      <c r="D2" s="2">
-        <v>513</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1">
+        <v>513</v>
+      </c>
+      <c r="D2" s="1">
+        <v>513</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1203,13 +1224,13 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>513</v>
-      </c>
-      <c r="D3" s="2">
-        <v>513</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="1">
+        <v>513</v>
+      </c>
+      <c r="D3" s="1">
+        <v>513</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1223,13 +1244,13 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
-        <v>513</v>
-      </c>
-      <c r="D4" s="2">
-        <v>513</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="1">
+        <v>513</v>
+      </c>
+      <c r="D4" s="1">
+        <v>513</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1243,13 +1264,13 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>513</v>
-      </c>
-      <c r="D5" s="2">
-        <v>513</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="1">
+        <v>513</v>
+      </c>
+      <c r="D5" s="1">
+        <v>513</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1263,13 +1284,13 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>513</v>
-      </c>
-      <c r="D6" s="2">
-        <v>513</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="1">
+        <v>513</v>
+      </c>
+      <c r="D6" s="1">
+        <v>513</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1283,13 +1304,13 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
-        <v>513</v>
-      </c>
-      <c r="D7" s="2">
-        <v>513</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="1">
+        <v>513</v>
+      </c>
+      <c r="D7" s="1">
+        <v>513</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1303,13 +1324,13 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>513</v>
-      </c>
-      <c r="D8" s="2">
-        <v>513</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="1">
+        <v>513</v>
+      </c>
+      <c r="D8" s="1">
+        <v>513</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1323,13 +1344,13 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
-        <v>513</v>
-      </c>
-      <c r="D9" s="2">
-        <v>513</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="1">
+        <v>513</v>
+      </c>
+      <c r="D9" s="1">
+        <v>513</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1343,13 +1364,13 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>513</v>
-      </c>
-      <c r="D10" s="2">
-        <v>513</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="1">
+        <v>513</v>
+      </c>
+      <c r="D10" s="1">
+        <v>513</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1363,13 +1384,13 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
-        <v>513</v>
-      </c>
-      <c r="D11" s="2">
-        <v>513</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="1">
+        <v>513</v>
+      </c>
+      <c r="D11" s="1">
+        <v>513</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1383,13 +1404,13 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
-        <v>513</v>
-      </c>
-      <c r="D12" s="2">
-        <v>513</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="1">
+        <v>513</v>
+      </c>
+      <c r="D12" s="1">
+        <v>513</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1403,13 +1424,13 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
-        <v>513</v>
-      </c>
-      <c r="D13" s="2">
-        <v>513</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="1">
+        <v>513</v>
+      </c>
+      <c r="D13" s="1">
+        <v>513</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1423,13 +1444,13 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
-        <v>513</v>
-      </c>
-      <c r="D14" s="2">
-        <v>513</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="1">
+        <v>513</v>
+      </c>
+      <c r="D14" s="1">
+        <v>513</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1448,10 +1469,18 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD27"/>
+      <selection activeCell="D1" sqref="A$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="77.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="7.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="55.9285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1480,11 +1509,13 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>512</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1498,11 +1529,13 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>512</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1516,11 +1549,13 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>512</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1534,11 +1569,13 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>512</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1552,11 +1589,13 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>512</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1570,11 +1609,13 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>512</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1588,11 +1629,13 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>512</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1606,11 +1649,13 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>512</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1624,11 +1669,13 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>512</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1642,11 +1689,13 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>512</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1660,11 +1709,13 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>512</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1678,11 +1729,13 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>512</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1696,11 +1749,13 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>512</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1719,10 +1774,18 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D1" sqref="A$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="77.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="7.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="55.9285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1751,13 +1814,13 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="2">
-        <v>513</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1">
+        <v>513</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1771,13 +1834,13 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>511</v>
       </c>
-      <c r="D3" s="2">
-        <v>513</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>513</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1791,13 +1854,13 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>511</v>
       </c>
-      <c r="D4" s="2">
-        <v>513</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <v>513</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1811,13 +1874,13 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>511</v>
       </c>
-      <c r="D5" s="2">
-        <v>513</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>513</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1831,13 +1894,13 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>511</v>
       </c>
-      <c r="D6" s="2">
-        <v>513</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>513</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1851,13 +1914,13 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>511</v>
       </c>
-      <c r="D7" s="2">
-        <v>513</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>513</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1871,13 +1934,13 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>511</v>
       </c>
-      <c r="D8" s="2">
-        <v>513</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>513</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1891,13 +1954,13 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>511</v>
       </c>
-      <c r="D9" s="2">
-        <v>513</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>513</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1911,13 +1974,13 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>511</v>
       </c>
-      <c r="D10" s="2">
-        <v>513</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
+        <v>513</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1931,13 +1994,13 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="2">
-        <v>513</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
+        <v>513</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1951,13 +2014,13 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>511</v>
       </c>
-      <c r="D12" s="2">
-        <v>513</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
+        <v>513</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1971,13 +2034,13 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>511</v>
       </c>
-      <c r="D13" s="2">
-        <v>513</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
+        <v>513</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1991,17 +2054,1010 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>511</v>
       </c>
-      <c r="D14" s="2">
-        <v>513</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
+        <v>513</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="77.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="55.9285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>513</v>
+      </c>
+      <c r="D2" s="1">
+        <v>513</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>513</v>
+      </c>
+      <c r="D3" s="1">
+        <v>513</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>513</v>
+      </c>
+      <c r="D4" s="1">
+        <v>513</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>513</v>
+      </c>
+      <c r="D5" s="1">
+        <v>513</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>513</v>
+      </c>
+      <c r="D6" s="1">
+        <v>513</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>513</v>
+      </c>
+      <c r="D7" s="1">
+        <v>513</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>513</v>
+      </c>
+      <c r="D8" s="1">
+        <v>513</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>513</v>
+      </c>
+      <c r="D9" s="1">
+        <v>513</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>513</v>
+      </c>
+      <c r="D10" s="1">
+        <v>513</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>513</v>
+      </c>
+      <c r="D11" s="1">
+        <v>513</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>513</v>
+      </c>
+      <c r="D12" s="1">
+        <v>513</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>513</v>
+      </c>
+      <c r="D13" s="1">
+        <v>513</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>513</v>
+      </c>
+      <c r="D14" s="1">
+        <v>513</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>513</v>
+      </c>
+      <c r="D15" s="1">
+        <v>513</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="77.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="7.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="55.9285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>512</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>512</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>512</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>512</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>512</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>512</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>512</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>512</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>512</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>512</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>512</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>512</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>512</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>512</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="77.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="7.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="55.9285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>511</v>
+      </c>
+      <c r="D2" s="1">
+        <v>513</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>511</v>
+      </c>
+      <c r="D3" s="1">
+        <v>513</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>511</v>
+      </c>
+      <c r="D4" s="1">
+        <v>513</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>511</v>
+      </c>
+      <c r="D5" s="1">
+        <v>513</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>511</v>
+      </c>
+      <c r="D6" s="1">
+        <v>513</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>511</v>
+      </c>
+      <c r="D7" s="1">
+        <v>513</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>511</v>
+      </c>
+      <c r="D8" s="1">
+        <v>513</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>511</v>
+      </c>
+      <c r="D9" s="1">
+        <v>513</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>511</v>
+      </c>
+      <c r="D10" s="1">
+        <v>513</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>511</v>
+      </c>
+      <c r="D11" s="1">
+        <v>513</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>511</v>
+      </c>
+      <c r="D12" s="1">
+        <v>513</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>511</v>
+      </c>
+      <c r="D13" s="1">
+        <v>513</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>511</v>
+      </c>
+      <c r="D14" s="1">
+        <v>513</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>511</v>
+      </c>
+      <c r="D15" s="1">
+        <v>513</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>566</v>
+      </c>
+      <c r="D16" s="1">
+        <v>513</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/ims_test_data.xlsx
+++ b/data/ims_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12220" tabRatio="737" activeTab="5"/>
+    <workbookView windowHeight="17020" tabRatio="737" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fhc_cp_other_in" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="fhc_lp_other_in" sheetId="4" r:id="rId4"/>
     <sheet name="bhc_lp_other_in" sheetId="5" r:id="rId5"/>
     <sheet name="zzc_lp_other_in" sheetId="6" r:id="rId6"/>
+    <sheet name="fhc_purchase_in" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1774,7 +1776,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A$1:F$1048576"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2078,8 +2080,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2110,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2726,8 +2728,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -3064,4 +3066,85 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="77.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="7.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="55.9285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>513</v>
+      </c>
+      <c r="D2" s="1">
+        <v>513</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>